--- a/data/trans_orig/P17E-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P17E-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17312</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11112</v>
+        <v>11425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23863</v>
+        <v>24504</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3503828910172743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2248874618213072</v>
+        <v>0.2312295550312779</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4829527806981715</v>
+        <v>0.4959317529451586</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>19226</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12823</v>
+        <v>12117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27385</v>
+        <v>26922</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2904544180136644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.193730646747981</v>
+        <v>0.1830589842932478</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.413722326074913</v>
+        <v>0.4067277433191616</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -786,19 +786,19 @@
         <v>36538</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27519</v>
+        <v>27112</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47133</v>
+        <v>46163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3160687355368486</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2380501920292669</v>
+        <v>0.2345249624058637</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4077194281789679</v>
+        <v>0.3993269730111954</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>32098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25547</v>
+        <v>24906</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38298</v>
+        <v>37985</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6496171089827257</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5170472193018285</v>
+        <v>0.5040682470548414</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7751125381786929</v>
+        <v>0.768770444968722</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -836,19 +836,19 @@
         <v>46966</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38807</v>
+        <v>39270</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53369</v>
+        <v>54075</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7095455819863355</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5862776739250871</v>
+        <v>0.5932722566808384</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.806269353252019</v>
+        <v>0.8169410157067521</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>80</v>
@@ -857,19 +857,19 @@
         <v>79064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>68469</v>
+        <v>69439</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>88083</v>
+        <v>88490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6839312644631514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5922805718210319</v>
+        <v>0.6006730269888046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.761949807970733</v>
+        <v>0.7654750375941364</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>16537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8969</v>
+        <v>9381</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25759</v>
+        <v>25104</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1856756704694925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1006987526227512</v>
+        <v>0.1053259244897178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.289222786792878</v>
+        <v>0.2818656119552218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -982,19 +982,19 @@
         <v>38751</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28867</v>
+        <v>29451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49306</v>
+        <v>50407</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2930076770798086</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2182730655752027</v>
+        <v>0.2226867487421217</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3728194790076132</v>
+        <v>0.3811481609889365</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -1003,19 +1003,19 @@
         <v>55288</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42386</v>
+        <v>43057</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68910</v>
+        <v>70286</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2498137681818316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1915175929456648</v>
+        <v>0.1945513379728843</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3113661077784376</v>
+        <v>0.3175816308172429</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>72527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63305</v>
+        <v>63960</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80095</v>
+        <v>79683</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8143243295305075</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7107772132071218</v>
+        <v>0.7181343880447781</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8993012473772487</v>
+        <v>0.8946740755102823</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -1053,19 +1053,19 @@
         <v>93500</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>82945</v>
+        <v>81844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>103384</v>
+        <v>102800</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7069923229201914</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.627180520992387</v>
+        <v>0.6188518390110639</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7817269344247972</v>
+        <v>0.7773132512578783</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>161</v>
@@ -1074,19 +1074,19 @@
         <v>166027</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>152405</v>
+        <v>151029</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>178929</v>
+        <v>178258</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7501862318181683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6886338922215627</v>
+        <v>0.682418369182757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8084824070543355</v>
+        <v>0.8054486620271156</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>6913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2976</v>
+        <v>2993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12984</v>
+        <v>12788</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1267547821766873</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05457061455553709</v>
+        <v>0.05487864063964477</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2380511168395197</v>
+        <v>0.2344641770937013</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1199,19 +1199,19 @@
         <v>10561</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5577</v>
+        <v>5791</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17576</v>
+        <v>18508</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1050740965334767</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05548169058758867</v>
+        <v>0.05761649033763095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.174863621897704</v>
+        <v>0.1841310332236238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1220,19 +1220,19 @@
         <v>17475</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10680</v>
+        <v>9897</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26288</v>
+        <v>26496</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1127004525935437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06887753023174992</v>
+        <v>0.06382800782415229</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1695378186652501</v>
+        <v>0.1708787782483082</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>47629</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41558</v>
+        <v>41754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>51566</v>
+        <v>51549</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8732452178233127</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7619488831604803</v>
+        <v>0.7655358229062987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9454293854444629</v>
+        <v>0.9451213593603552</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>89</v>
@@ -1270,19 +1270,19 @@
         <v>89953</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>82938</v>
+        <v>82006</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94937</v>
+        <v>94723</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8949259034665232</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8251363781022966</v>
+        <v>0.8158689667763763</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9445183094124117</v>
+        <v>0.9423835096623691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>136</v>
@@ -1291,19 +1291,19 @@
         <v>137581</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>128768</v>
+        <v>128560</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>144376</v>
+        <v>145159</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8872995474064563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8304621813347496</v>
+        <v>0.8291212217516919</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.93112246976825</v>
+        <v>0.9361719921758488</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>9513</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4924</v>
+        <v>4816</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16247</v>
+        <v>16019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.181601807142014</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0939987809014198</v>
+        <v>0.09192731943821275</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3101377704182579</v>
+        <v>0.3057960340136167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1416,19 +1416,19 @@
         <v>16429</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9980</v>
+        <v>10039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24528</v>
+        <v>24679</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1369961828039131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08321782993004957</v>
+        <v>0.08371455871660315</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2045318179333795</v>
+        <v>0.2057949582462347</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -1437,19 +1437,19 @@
         <v>25942</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17675</v>
+        <v>18264</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36573</v>
+        <v>36527</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1505573369638054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1025780142257798</v>
+        <v>0.1059967151399341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2122601175372072</v>
+        <v>0.2119908413986141</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>42872</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36138</v>
+        <v>36366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47461</v>
+        <v>47569</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.818398192857986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6898622295817431</v>
+        <v>0.6942039659863836</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9060012190985802</v>
+        <v>0.9080726805617872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>107</v>
@@ -1487,19 +1487,19 @@
         <v>103492</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95393</v>
+        <v>95242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>109941</v>
+        <v>109882</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8630038171960869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7954681820666208</v>
+        <v>0.7942050417537652</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9167821700699506</v>
+        <v>0.9162854412833968</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>152</v>
@@ -1508,19 +1508,19 @@
         <v>146363</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135732</v>
+        <v>135778</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154630</v>
+        <v>154041</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8494426630361945</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7877398824627928</v>
+        <v>0.7880091586013862</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8974219857742198</v>
+        <v>0.8940032848600665</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>7619</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4053</v>
+        <v>4116</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13110</v>
+        <v>13203</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1703877819192148</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09063319560406317</v>
+        <v>0.09205590861858695</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2931918669696872</v>
+        <v>0.2952728579424657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1633,19 +1633,19 @@
         <v>15981</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9678</v>
+        <v>9463</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24378</v>
+        <v>24599</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2099309351609174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.127137708672408</v>
+        <v>0.1243152754817218</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3202478696567105</v>
+        <v>0.3231466538814421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>23</v>
@@ -1654,19 +1654,19 @@
         <v>23600</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16775</v>
+        <v>15260</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34276</v>
+        <v>32817</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.195298200565112</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1388246841232362</v>
+        <v>0.1262824980156986</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2836484057539842</v>
+        <v>0.2715752435401132</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>37097</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31606</v>
+        <v>31513</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40663</v>
+        <v>40600</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8296122180807852</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7068081330303128</v>
+        <v>0.7047271420575343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9093668043959369</v>
+        <v>0.907944091381413</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>57</v>
@@ -1704,19 +1704,19 @@
         <v>60142</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>51745</v>
+        <v>51524</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66445</v>
+        <v>66660</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7900690648390826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6797521303432896</v>
+        <v>0.6768533461185584</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.872862291327592</v>
+        <v>0.8756847245182783</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>97</v>
@@ -1725,19 +1725,19 @@
         <v>97239</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>86563</v>
+        <v>88022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104064</v>
+        <v>105579</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.804701799434888</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7163515942460159</v>
+        <v>0.7284247564598868</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8611753158767638</v>
+        <v>0.8737175019843013</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>7643</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3707</v>
+        <v>3075</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13761</v>
+        <v>13373</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1665846876595172</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08080159866284933</v>
+        <v>0.06702198580937778</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.29990635884324</v>
+        <v>0.2914578937263184</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1850,19 +1850,19 @@
         <v>13406</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7810</v>
+        <v>7947</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21043</v>
+        <v>20661</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1548709870341093</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09022717749882682</v>
+        <v>0.0918031914298274</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2430904561942389</v>
+        <v>0.2386789845974157</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -1871,19 +1871,19 @@
         <v>21049</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13802</v>
+        <v>14093</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>29882</v>
+        <v>30090</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.15892889978113</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1042088942549598</v>
+        <v>0.10640264167694</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2256152345552646</v>
+        <v>0.2271895577204709</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>38240</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32122</v>
+        <v>32510</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42176</v>
+        <v>42808</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8334153123404828</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7000936411567602</v>
+        <v>0.7085421062736819</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9191984013371508</v>
+        <v>0.9329780141906245</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>71</v>
@@ -1921,19 +1921,19 @@
         <v>73157</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65520</v>
+        <v>65902</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78753</v>
+        <v>78616</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8451290129658907</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7569095438057608</v>
+        <v>0.7613210154025842</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.909772822501173</v>
+        <v>0.9081968085701726</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>110</v>
@@ -1942,19 +1942,19 @@
         <v>111397</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102564</v>
+        <v>102356</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>118644</v>
+        <v>118353</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.84107110021887</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7743847654447354</v>
+        <v>0.7728104422795291</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8957911057450403</v>
+        <v>0.8935973583230602</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>26849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18034</v>
+        <v>18402</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36625</v>
+        <v>38132</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1874191842629301</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1258851523165955</v>
+        <v>0.1284595204293665</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2556598671780785</v>
+        <v>0.2661813572525267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -2067,19 +2067,19 @@
         <v>32481</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22989</v>
+        <v>23506</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44120</v>
+        <v>44551</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.151030360679412</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1068936116660527</v>
+        <v>0.1092954221456114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.205147372089643</v>
+        <v>0.2071517804144575</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>59</v>
@@ -2088,19 +2088,19 @@
         <v>59330</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47935</v>
+        <v>45991</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>74718</v>
+        <v>74708</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1655785139962271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1337781860242702</v>
+        <v>0.1283530296182349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2085231150022613</v>
+        <v>0.2084944943033782</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>116406</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>106630</v>
+        <v>105123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>125221</v>
+        <v>124853</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.81258081573707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7443401328219216</v>
+        <v>0.7338186427474734</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8741148476834045</v>
+        <v>0.8715404795706336</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>179</v>
@@ -2138,19 +2138,19 @@
         <v>182583</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>170944</v>
+        <v>170513</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192075</v>
+        <v>191558</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.848969639320588</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7948526279103569</v>
+        <v>0.7928482195855424</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8931063883339473</v>
+        <v>0.8907045778543885</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>295</v>
@@ -2159,19 +2159,19 @@
         <v>298989</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>283601</v>
+        <v>283611</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>310384</v>
+        <v>312328</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8344214860037729</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7914768849977387</v>
+        <v>0.7915055056966218</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8662218139757297</v>
+        <v>0.8716469703817651</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>37984</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>27779</v>
+        <v>28111</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>50375</v>
+        <v>50383</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2109649778301454</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1542870979862624</v>
+        <v>0.1561338627517453</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2797856139588562</v>
+        <v>0.2798348269440208</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -2284,19 +2284,19 @@
         <v>64019</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50512</v>
+        <v>51014</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79612</v>
+        <v>79523</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2543053593272555</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2006493533735207</v>
+        <v>0.202642794564494</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3162461042843754</v>
+        <v>0.3158926645004049</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>95</v>
@@ -2305,19 +2305,19 @@
         <v>102003</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>86308</v>
+        <v>83866</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>121234</v>
+        <v>119364</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2362333370970928</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.199883975651145</v>
+        <v>0.1942291930626445</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2807724042934938</v>
+        <v>0.2764401346933597</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>142063</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>129672</v>
+        <v>129664</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>152268</v>
+        <v>151936</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7890350221698547</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7202143860411437</v>
+        <v>0.720165173055979</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8457129020137377</v>
+        <v>0.8438661372482548</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>178</v>
@@ -2355,19 +2355,19 @@
         <v>187723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>172130</v>
+        <v>172219</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>201230</v>
+        <v>200728</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7456946406727445</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6837538957156246</v>
+        <v>0.6841073354995952</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7993506466264795</v>
+        <v>0.7973572054355061</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>320</v>
@@ -2376,19 +2376,19 @@
         <v>329786</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>310555</v>
+        <v>312425</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>345481</v>
+        <v>347923</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7637666629029073</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7192275957065059</v>
+        <v>0.7235598653066404</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8001160243488549</v>
+        <v>0.8057708069373555</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>130371</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>112921</v>
+        <v>110486</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>154422</v>
+        <v>150898</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1977408233790627</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1712729251392037</v>
+        <v>0.1675802193453685</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2342203889680147</v>
+        <v>0.2288753790743633</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>202</v>
@@ -2501,19 +2501,19 @@
         <v>210854</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>187173</v>
+        <v>185204</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>238209</v>
+        <v>236783</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.201125216867155</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1785368794246313</v>
+        <v>0.176659003874954</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2272182149675497</v>
+        <v>0.2258585717630131</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>332</v>
@@ -2522,19 +2522,19 @@
         <v>341225</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>311716</v>
+        <v>310393</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>376730</v>
+        <v>375671</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1998185624610324</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1825387580403621</v>
+        <v>0.181763663909125</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2206105094917492</v>
+        <v>0.2199903260549481</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>528931</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>504880</v>
+        <v>508404</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>546381</v>
+        <v>548816</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8022591766209373</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7657796110319857</v>
+        <v>0.7711246209256369</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8287270748607963</v>
+        <v>0.8324197806546316</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>820</v>
@@ -2572,19 +2572,19 @@
         <v>837516</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>810161</v>
+        <v>811587</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>861197</v>
+        <v>863166</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.798874783132845</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7727817850324504</v>
+        <v>0.774141428236987</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8214631205753687</v>
+        <v>0.8233409961250461</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1351</v>
@@ -2593,19 +2593,19 @@
         <v>1366447</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1330942</v>
+        <v>1332001</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1395956</v>
+        <v>1397279</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8001814375389675</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7793894905082508</v>
+        <v>0.7800096739450521</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.817461241959638</v>
+        <v>0.818236336090875</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>18137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11119</v>
+        <v>11297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26067</v>
+        <v>27034</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2936516371635617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1800179174354734</v>
+        <v>0.18290679365773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4220362694806916</v>
+        <v>0.4376963957157117</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -2962,19 +2962,19 @@
         <v>13840</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7963</v>
+        <v>7827</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22880</v>
+        <v>22895</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.144613294011805</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08320354426544568</v>
+        <v>0.08178342886200041</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2390767342385688</v>
+        <v>0.2392342009354921</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -2983,19 +2983,19 @@
         <v>31977</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22427</v>
+        <v>21798</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43821</v>
+        <v>43303</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2030722331652609</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1424234020762878</v>
+        <v>0.1384320738061713</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2782924339453555</v>
+        <v>0.2749999757781969</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>43627</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35697</v>
+        <v>34730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50645</v>
+        <v>50467</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7063483628364383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5779637305193084</v>
+        <v>0.5623036042842883</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8199820825645265</v>
+        <v>0.8170932063422698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>74</v>
@@ -3033,19 +3033,19 @@
         <v>81861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72821</v>
+        <v>72806</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87738</v>
+        <v>87874</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.855386705988195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7609232657614312</v>
+        <v>0.760765799064508</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9167964557345544</v>
+        <v>0.9182165711379996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>115</v>
@@ -3054,19 +3054,19 @@
         <v>125488</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>113644</v>
+        <v>114162</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>135038</v>
+        <v>135667</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7969277668347391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7217075660546445</v>
+        <v>0.7250000242218031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8575765979237122</v>
+        <v>0.8615679261938285</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>16989</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9688</v>
+        <v>9768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27616</v>
+        <v>28788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1637919818091904</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09340095196504251</v>
+        <v>0.09417474085582896</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2662573018702112</v>
+        <v>0.2775538747199004</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3179,19 +3179,19 @@
         <v>22214</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14284</v>
+        <v>14369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32298</v>
+        <v>34148</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1439033084375453</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09253531421317364</v>
+        <v>0.09308304159068699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2092262463125496</v>
+        <v>0.2212110297025439</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -3200,19 +3200,19 @@
         <v>39203</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27751</v>
+        <v>28480</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>53577</v>
+        <v>53810</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1518962332134363</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1075256113122787</v>
+        <v>0.1103499393618448</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2075901277633367</v>
+        <v>0.2084949387183717</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>86732</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76105</v>
+        <v>74933</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>94033</v>
+        <v>93953</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8362080181908096</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7337426981297888</v>
+        <v>0.7224461252800995</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9065990480349574</v>
+        <v>0.9058252591441711</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>121</v>
@@ -3250,19 +3250,19 @@
         <v>132153</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>122069</v>
+        <v>120219</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>140083</v>
+        <v>139998</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8560966915624547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7907737536874504</v>
+        <v>0.7787889702974563</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9074646857868264</v>
+        <v>0.9069169584093132</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>198</v>
@@ -3271,19 +3271,19 @@
         <v>218885</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>204511</v>
+        <v>204278</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>230337</v>
+        <v>229608</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8481037667865637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7924098722366634</v>
+        <v>0.7915050612816285</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8924743886877213</v>
+        <v>0.8896500606381553</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>16021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9767</v>
+        <v>10053</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23671</v>
+        <v>25253</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1855810980246027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1131427134439426</v>
+        <v>0.1164496045400672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2741979037809338</v>
+        <v>0.2925218173691173</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -3396,19 +3396,19 @@
         <v>20962</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13754</v>
+        <v>13014</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>31413</v>
+        <v>30466</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1462779113348206</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09597803536732899</v>
+        <v>0.09081570567434503</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2192045526563249</v>
+        <v>0.2125974805210758</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -3417,19 +3417,19 @@
         <v>36983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25642</v>
+        <v>26977</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49473</v>
+        <v>51274</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1610534020564353</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.111664746291543</v>
+        <v>0.1174779043091727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2154428167136766</v>
+        <v>0.2232857481542979</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>70306</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>62656</v>
+        <v>61074</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76560</v>
+        <v>76274</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8144189019753973</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7258020962190661</v>
+        <v>0.7074781826308836</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8868572865560574</v>
+        <v>0.8835503954599329</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>116</v>
@@ -3467,19 +3467,19 @@
         <v>122343</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111892</v>
+        <v>112839</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129551</v>
+        <v>130291</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8537220886651794</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7807954473436752</v>
+        <v>0.787402519478924</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9040219646326719</v>
+        <v>0.909184294325655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>184</v>
@@ -3488,19 +3488,19 @@
         <v>192650</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>180160</v>
+        <v>178359</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>203991</v>
+        <v>202656</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8389465979435647</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7845571832863233</v>
+        <v>0.7767142518457021</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8883352537084563</v>
+        <v>0.8825220956908273</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>16316</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10385</v>
+        <v>9684</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24684</v>
+        <v>23827</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.230203874993134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1465200221378536</v>
+        <v>0.1366365238952997</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3482701907786226</v>
+        <v>0.3361797970349041</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -3613,19 +3613,19 @@
         <v>24051</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16141</v>
+        <v>16152</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33464</v>
+        <v>32768</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2112937521134666</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1418049300431617</v>
+        <v>0.1418994419795312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2939920409124143</v>
+        <v>0.2878763359894487</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>40</v>
@@ -3634,19 +3634,19 @@
         <v>40367</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30327</v>
+        <v>30408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53430</v>
+        <v>52653</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2185502062394806</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1641949964357422</v>
+        <v>0.1646337224835258</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2892754282316135</v>
+        <v>0.2850679861963127</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>54560</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46192</v>
+        <v>47049</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60491</v>
+        <v>61192</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.769796125006866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6517298092213772</v>
+        <v>0.6638202029650956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8534799778621464</v>
+        <v>0.8633634761047002</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -3684,19 +3684,19 @@
         <v>89774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80361</v>
+        <v>81057</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>97684</v>
+        <v>97673</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7887062478865334</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7060079590875857</v>
+        <v>0.7121236640105514</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8581950699568384</v>
+        <v>0.8581005580204689</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -3705,19 +3705,19 @@
         <v>144335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>131272</v>
+        <v>132049</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154375</v>
+        <v>154294</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7814497937605194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7107245717683871</v>
+        <v>0.7149320138036872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8358050035642579</v>
+        <v>0.8353662775164742</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>9250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4865</v>
+        <v>4946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15260</v>
+        <v>15713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1779191814798213</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09357880680627974</v>
+        <v>0.09513434592632757</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.293503351383133</v>
+        <v>0.3022173015330645</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -3830,19 +3830,19 @@
         <v>19119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12146</v>
+        <v>12080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27744</v>
+        <v>27680</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2100078646461341</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1334154315234227</v>
+        <v>0.1326901205310576</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3047477742350653</v>
+        <v>0.3040455037463947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>28</v>
@@ -3851,19 +3851,19 @@
         <v>28369</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20478</v>
+        <v>20208</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38071</v>
+        <v>38635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1983436065844792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1431701022230648</v>
+        <v>0.141282190443131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2661691135987765</v>
+        <v>0.2701126445792918</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>42742</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36732</v>
+        <v>36279</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47127</v>
+        <v>47046</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8220808185201787</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7064966486168669</v>
+        <v>0.6977826984669355</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9064211931937203</v>
+        <v>0.9048656540736725</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>70</v>
@@ -3901,19 +3901,19 @@
         <v>71921</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63296</v>
+        <v>63360</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78894</v>
+        <v>78960</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7899921353538659</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6952522257649348</v>
+        <v>0.6959544962536048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8665845684765773</v>
+        <v>0.8673098794689423</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -3922,19 +3922,19 @@
         <v>114663</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104961</v>
+        <v>104397</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122554</v>
+        <v>122824</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8016563934155209</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7338308864012235</v>
+        <v>0.7298873554207083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8568298977769352</v>
+        <v>0.8587178095568689</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>18121</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11128</v>
+        <v>11170</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26543</v>
+        <v>27654</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2241752649231505</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1376655894752992</v>
+        <v>0.1381829941711984</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.328365524439895</v>
+        <v>0.3420989736827639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -4047,19 +4047,19 @@
         <v>17406</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10572</v>
+        <v>10392</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>26336</v>
+        <v>25813</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1582218589365934</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09610056720489699</v>
+        <v>0.09446148363540192</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.239390857407707</v>
+        <v>0.2346355777254858</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -4068,19 +4068,19 @@
         <v>35528</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>25095</v>
+        <v>26337</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47604</v>
+        <v>47291</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1861570814190349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1314917262609265</v>
+        <v>0.1379982416189185</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2494361307729506</v>
+        <v>0.247797914169037</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>62714</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>54292</v>
+        <v>53181</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>69707</v>
+        <v>69665</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7758247350768495</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6716344755601051</v>
+        <v>0.657901026317236</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8623344105247009</v>
+        <v>0.8618170058288016</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -4118,19 +4118,19 @@
         <v>92606</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83676</v>
+        <v>84199</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99440</v>
+        <v>99620</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8417781410634065</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7606091425922927</v>
+        <v>0.7653644222745141</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9038994327951024</v>
+        <v>0.9055385163645981</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>148</v>
@@ -4139,19 +4139,19 @@
         <v>155319</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>143243</v>
+        <v>143556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>165752</v>
+        <v>164510</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8138429185809651</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7505638692270495</v>
+        <v>0.752202085830963</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8685082737390735</v>
+        <v>0.8620017583810815</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>36370</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25822</v>
+        <v>26675</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47379</v>
+        <v>48333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2164312555362363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1536645794501569</v>
+        <v>0.1587368022313509</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2819427685399845</v>
+        <v>0.2876211229123005</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>51</v>
@@ -4264,19 +4264,19 @@
         <v>53868</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>41487</v>
+        <v>40124</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67348</v>
+        <v>66976</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2425331215783264</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.186787704012554</v>
+        <v>0.180650222427273</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3032238247528544</v>
+        <v>0.3015479325607184</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -4285,19 +4285,19 @@
         <v>90238</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74195</v>
+        <v>73426</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107055</v>
+        <v>107629</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2312906343270041</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1901694110807085</v>
+        <v>0.1881985742547726</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2743949114520839</v>
+        <v>0.2758645419246787</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>131674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>120665</v>
+        <v>119711</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142222</v>
+        <v>141369</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7835687444637637</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7180572314600155</v>
+        <v>0.7123788770876988</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8463354205498431</v>
+        <v>0.8412631977686489</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>151</v>
@@ -4335,19 +4335,19 @@
         <v>168239</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>154759</v>
+        <v>155131</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>180620</v>
+        <v>181983</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7574668784216736</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6967761752471457</v>
+        <v>0.6984520674392816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.813212295987446</v>
+        <v>0.8193497775727269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>270</v>
@@ -4356,19 +4356,19 @@
         <v>299913</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>283096</v>
+        <v>282522</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>315956</v>
+        <v>316725</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7687093656729959</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7256050885479164</v>
+        <v>0.7241354580753212</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8098305889192924</v>
+        <v>0.8118014257452274</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>31884</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21827</v>
+        <v>21420</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>44168</v>
+        <v>44013</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2036287738292407</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1393996276448199</v>
+        <v>0.1368009686895828</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.282081958802418</v>
+        <v>0.2810917257323932</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -4481,19 +4481,19 @@
         <v>41848</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>31385</v>
+        <v>31231</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>53514</v>
+        <v>55728</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1875686999358614</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1406740457918779</v>
+        <v>0.1399824213334885</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2398595211134033</v>
+        <v>0.2497799522450958</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>67</v>
@@ -4502,19 +4502,19 @@
         <v>73732</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>58542</v>
+        <v>57722</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>90081</v>
+        <v>91536</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1941917441262802</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1541850128798828</v>
+        <v>0.1520241740657715</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2372493699836444</v>
+        <v>0.2410830466457902</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>124696</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>112412</v>
+        <v>112567</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>134753</v>
+        <v>135160</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7963712261707594</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7179180411975821</v>
+        <v>0.7189082742676067</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8606003723551802</v>
+        <v>0.863199031310417</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>167</v>
@@ -4552,19 +4552,19 @@
         <v>181259</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>169593</v>
+        <v>167379</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>191722</v>
+        <v>191876</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8124313000641387</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7601404788865964</v>
+        <v>0.750220047754904</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8593259542081221</v>
+        <v>0.8600175786665115</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>279</v>
@@ -4573,19 +4573,19 @@
         <v>305955</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>289606</v>
+        <v>288151</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>321145</v>
+        <v>321965</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8058082558737197</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7627506300163557</v>
+        <v>0.7589169533542101</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8458149871201178</v>
+        <v>0.847975825934229</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>163088</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>141122</v>
+        <v>141071</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>186859</v>
+        <v>189390</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2090500595025294</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1808934298997096</v>
+        <v>0.1808275698810946</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2395201301574019</v>
+        <v>0.2427637204436983</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>202</v>
@@ -4698,19 +4698,19 @@
         <v>213308</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>186460</v>
+        <v>186803</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>240512</v>
+        <v>240860</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1849282276401104</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1616521428877156</v>
+        <v>0.1619494305958766</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2085130572468187</v>
+        <v>0.2088141190868634</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>354</v>
@@ -4719,19 +4719,19 @@
         <v>376396</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>341626</v>
+        <v>341184</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>414705</v>
+        <v>413466</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1946605266301123</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1766784060125891</v>
+        <v>0.1764496197126491</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.214472366034318</v>
+        <v>0.2138316289431503</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>617052</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>593281</v>
+        <v>590750</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>639018</v>
+        <v>639069</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7909499404974706</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7604798698425982</v>
+        <v>0.7572362795563019</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8191065701002904</v>
+        <v>0.8191724301189055</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>872</v>
@@ -4769,19 +4769,19 @@
         <v>940156</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>912952</v>
+        <v>912604</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>967004</v>
+        <v>966661</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8150717723598896</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7914869427531812</v>
+        <v>0.7911858809131365</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8383478571122843</v>
+        <v>0.8380505694041234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1437</v>
@@ -4790,19 +4790,19 @@
         <v>1557208</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1518899</v>
+        <v>1520138</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1591978</v>
+        <v>1592420</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8053394733698878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7855276339656824</v>
+        <v>0.7861683710568497</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.823321593987411</v>
+        <v>0.8235503802873508</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>19441</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12479</v>
+        <v>12551</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28123</v>
+        <v>28156</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2869022850128062</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1841540912118514</v>
+        <v>0.1852221935104044</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4150278604596777</v>
+        <v>0.4155112710210122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -5159,19 +5159,19 @@
         <v>20815</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13459</v>
+        <v>14359</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29407</v>
+        <v>30292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2221425810684931</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1436431180103436</v>
+        <v>0.153242995678034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3138390901713064</v>
+        <v>0.3232918966116437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -5180,19 +5180,19 @@
         <v>40256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29783</v>
+        <v>30178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52323</v>
+        <v>52074</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2493207376681935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1844606222110922</v>
+        <v>0.1869071469661141</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3240578808879515</v>
+        <v>0.3225179885101962</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>48321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39639</v>
+        <v>39606</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55283</v>
+        <v>55211</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7130977149871938</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5849721395403222</v>
+        <v>0.5844887289789877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8158459087881484</v>
+        <v>0.8147778064895953</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -5230,19 +5230,19 @@
         <v>72885</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64293</v>
+        <v>63408</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80241</v>
+        <v>79341</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7778574189315068</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6861609098286943</v>
+        <v>0.6767081033883567</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8563568819896564</v>
+        <v>0.8467570043219663</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>115</v>
@@ -5251,19 +5251,19 @@
         <v>121205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>109138</v>
+        <v>109387</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>131678</v>
+        <v>131283</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7506792623318065</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6759421191120485</v>
+        <v>0.6774820114898038</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8155393777889077</v>
+        <v>0.8130928530338859</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>20078</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13336</v>
+        <v>12824</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30520</v>
+        <v>29351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1814230441658128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1205072448145703</v>
+        <v>0.1158808797214326</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2757865702801138</v>
+        <v>0.2652173870395196</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -5376,19 +5376,19 @@
         <v>33814</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24030</v>
+        <v>24058</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>45413</v>
+        <v>46078</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1860322471564745</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1322044015045822</v>
+        <v>0.1323618221387409</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2498461296771529</v>
+        <v>0.2535072869390786</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -5397,19 +5397,19 @@
         <v>53891</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41496</v>
+        <v>41226</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>68843</v>
+        <v>68902</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1842879473386365</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1419017988357935</v>
+        <v>0.1409780661643983</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2354161774082455</v>
+        <v>0.2356196580624622</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>90589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80147</v>
+        <v>81316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>97331</v>
+        <v>97843</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8185769558341872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7242134297198861</v>
+        <v>0.7347826129604803</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8794927551854297</v>
+        <v>0.8841191202785673</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>133</v>
@@ -5447,19 +5447,19 @@
         <v>147949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>136350</v>
+        <v>135685</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157733</v>
+        <v>157705</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8139677528435255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7501538703228475</v>
+        <v>0.7464927130609216</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8677955984954183</v>
+        <v>0.8676381778612592</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>218</v>
@@ -5468,19 +5468,19 @@
         <v>238539</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>223587</v>
+        <v>223528</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>250934</v>
+        <v>251204</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8157120526613635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7645838225917545</v>
+        <v>0.7643803419375379</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8580982011642065</v>
+        <v>0.8590219338356017</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>11642</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6945</v>
+        <v>6396</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18133</v>
+        <v>17967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1565425000069434</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09339003668122534</v>
+        <v>0.08600637976639605</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2438340251764319</v>
+        <v>0.2415947977552702</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>13</v>
@@ -5593,19 +5593,19 @@
         <v>12257</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6556</v>
+        <v>6776</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18753</v>
+        <v>20011</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1175668191947712</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06288071248290791</v>
+        <v>0.0649961703320478</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1798817824830534</v>
+        <v>0.1919468963212094</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -5614,19 +5614,19 @@
         <v>23898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15812</v>
+        <v>16028</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33091</v>
+        <v>33059</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1337940275519759</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08852406930446763</v>
+        <v>0.08973175916597488</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1852580152012398</v>
+        <v>0.1850807031900903</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>62725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56234</v>
+        <v>56400</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67422</v>
+        <v>67971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8434574999930566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7561659748235682</v>
+        <v>0.7584052022447298</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9066099633187747</v>
+        <v>0.9139936202336039</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -5664,19 +5664,19 @@
         <v>91996</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85500</v>
+        <v>84242</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>97697</v>
+        <v>97477</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8824331808052288</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8201182175169462</v>
+        <v>0.8080531036787915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9371192875170921</v>
+        <v>0.9350038296679528</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -5685,19 +5685,19 @@
         <v>154721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>145528</v>
+        <v>145560</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>162807</v>
+        <v>162591</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8662059724480241</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8147419847987604</v>
+        <v>0.8149192968099098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9114759306955323</v>
+        <v>0.9102682408340254</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>16565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10240</v>
+        <v>10014</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25492</v>
+        <v>25641</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.18951921729654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1171535330180083</v>
+        <v>0.1145645397049018</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2916485457697173</v>
+        <v>0.2933473160601899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -5810,19 +5810,19 @@
         <v>31330</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21938</v>
+        <v>21934</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42581</v>
+        <v>43639</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2298109190765551</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1609176714896541</v>
+        <v>0.160887387414558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3123395292353666</v>
+        <v>0.3201011381560556</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>43</v>
@@ -5831,19 +5831,19 @@
         <v>47895</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34552</v>
+        <v>35461</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61238</v>
+        <v>61159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2140702297768134</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1544331956335908</v>
+        <v>0.1584945654424683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2737056161021973</v>
+        <v>0.2733519838731221</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>70842</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61915</v>
+        <v>61766</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>77167</v>
+        <v>77393</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.81048078270346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7083514542302833</v>
+        <v>0.7066526839398098</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8828464669819927</v>
+        <v>0.8854354602950975</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>97</v>
@@ -5881,19 +5881,19 @@
         <v>105000</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93749</v>
+        <v>92691</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>114392</v>
+        <v>114396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.770189080923445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6876604707646333</v>
+        <v>0.6798988618439445</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8390823285103458</v>
+        <v>0.839112612585442</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>167</v>
@@ -5902,19 +5902,19 @@
         <v>175841</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>162498</v>
+        <v>162577</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>189184</v>
+        <v>188275</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7859297702231866</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7262943838978027</v>
+        <v>0.7266480161268778</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8455668043664092</v>
+        <v>0.8415054345575317</v>
       </c>
     </row>
     <row r="15">
@@ -6009,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8481</v>
+        <v>8649</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09309170563082016</v>
@@ -6018,7 +6018,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2805212709518036</v>
+        <v>0.2861001718263029</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -6027,19 +6027,19 @@
         <v>8625</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4112</v>
+        <v>4471</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14531</v>
+        <v>14440</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1666751603486923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07946280141580139</v>
+        <v>0.08639127882497609</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2807905134631299</v>
+        <v>0.2790300142640751</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -6048,19 +6048,19 @@
         <v>11440</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6579</v>
+        <v>5805</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19400</v>
+        <v>18939</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1395401612148628</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0802451589820731</v>
+        <v>0.0708103307695719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2366318971800766</v>
+        <v>0.2310139035712674</v>
       </c>
     </row>
     <row r="17">
@@ -6077,7 +6077,7 @@
         <v>27418</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21751</v>
+        <v>21583</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>30232</v>
@@ -6086,7 +6086,7 @@
         <v>0.9069082943691799</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7194787290481962</v>
+        <v>0.7138998281736969</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6098,19 +6098,19 @@
         <v>43125</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37219</v>
+        <v>37310</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47638</v>
+        <v>47279</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8333248396513077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7192094865368701</v>
+        <v>0.7209699857359262</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9205371985841986</v>
+        <v>0.9136087211750239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>72</v>
@@ -6119,19 +6119,19 @@
         <v>70542</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>62582</v>
+        <v>63043</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>75403</v>
+        <v>76177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8604598387851372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7633681028199233</v>
+        <v>0.7689860964287326</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9197548410179269</v>
+        <v>0.9291896692304281</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>10268</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5226</v>
+        <v>4835</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17707</v>
+        <v>17699</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09604835543793552</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04888110772638652</v>
+        <v>0.04523024419631655</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1656309679691709</v>
+        <v>0.1655622262884537</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -6244,19 +6244,19 @@
         <v>19884</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11974</v>
+        <v>11465</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29763</v>
+        <v>29498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.152507994710332</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09184469162217929</v>
+        <v>0.0879366187908079</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.228286857884422</v>
+        <v>0.2262483743870134</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -6265,19 +6265,19 @@
         <v>30152</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20111</v>
+        <v>20659</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>41819</v>
+        <v>42115</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1270707341703152</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08475492281875624</v>
+        <v>0.08706491762848902</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1762432735799933</v>
+        <v>0.1774896770413732</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>96637</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>89198</v>
+        <v>89206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101679</v>
+        <v>102070</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9039516445620644</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8343690320308291</v>
+        <v>0.8344377737115463</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9511188922736136</v>
+        <v>0.9547697558036834</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>106</v>
@@ -6315,19 +6315,19 @@
         <v>110493</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>100614</v>
+        <v>100879</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>118403</v>
+        <v>118912</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8474920052896679</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7717131421155776</v>
+        <v>0.7737516256129869</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9081553083778208</v>
+        <v>0.9120633812091922</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>200</v>
@@ -6336,19 +6336,19 @@
         <v>207130</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195463</v>
+        <v>195167</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>217171</v>
+        <v>216623</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8729292658296848</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8237567264200071</v>
+        <v>0.8225103229586272</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.915245077181244</v>
+        <v>0.912935082371511</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>30701</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20491</v>
+        <v>19790</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41911</v>
+        <v>41818</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2046373599150936</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1365797762131203</v>
+        <v>0.1319059237913482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2793567221989845</v>
+        <v>0.2787335566042353</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -6461,19 +6461,19 @@
         <v>40306</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29154</v>
+        <v>29574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53596</v>
+        <v>52377</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2162351839229327</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1564038690272232</v>
+        <v>0.1586604766864071</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2875303166899055</v>
+        <v>0.2809945610915282</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>64</v>
@@ -6482,19 +6482,19 @@
         <v>71008</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56426</v>
+        <v>56221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88540</v>
+        <v>86968</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2110632011178205</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1677199422623908</v>
+        <v>0.1671128888788088</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2631779014421008</v>
+        <v>0.2585048063716124</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>119327</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>108117</v>
+        <v>108210</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>129537</v>
+        <v>130238</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7953626400849064</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7206432778010164</v>
+        <v>0.7212664433957653</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8634202237868804</v>
+        <v>0.868094076208652</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>131</v>
@@ -6532,19 +6532,19 @@
         <v>146094</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>132804</v>
+        <v>134023</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>157246</v>
+        <v>156826</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7837648160770673</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7124696833100946</v>
+        <v>0.7190054389084719</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.843596130972778</v>
+        <v>0.8413395233135929</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>238</v>
@@ -6553,19 +6553,19 @@
         <v>265420</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>247888</v>
+        <v>249460</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>280002</v>
+        <v>280207</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7889367988821795</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7368220985578992</v>
+        <v>0.7414951936283875</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8322800577376093</v>
+        <v>0.8328871111211912</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>44443</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32361</v>
+        <v>31730</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56464</v>
+        <v>57068</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1981694177376868</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1442954322938283</v>
+        <v>0.1414841006852374</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2517719330237242</v>
+        <v>0.2544654415831855</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>47</v>
@@ -6678,19 +6678,19 @@
         <v>53853</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39887</v>
+        <v>40766</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>69712</v>
+        <v>68376</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1925063261894207</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1425835502657179</v>
+        <v>0.1457228503431385</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2491953956117386</v>
+        <v>0.2444206034516402</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>90</v>
@@ -6699,19 +6699,19 @@
         <v>98296</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>79666</v>
+        <v>80417</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>119566</v>
+        <v>118824</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1950261840829499</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1580627145336964</v>
+        <v>0.1595524255411905</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.237227304188151</v>
+        <v>0.235753469413178</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>179825</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>167804</v>
+        <v>167200</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>191907</v>
+        <v>192538</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8018305822623132</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7482280669762761</v>
+        <v>0.7455345584168145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8557045677061719</v>
+        <v>0.8585158993147622</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>202</v>
@@ -6749,19 +6749,19 @@
         <v>225895</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>210036</v>
+        <v>211372</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>239861</v>
+        <v>238982</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8074936738105793</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7508046043882614</v>
+        <v>0.7555793965483598</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8574164497342821</v>
+        <v>0.8542771496568615</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>373</v>
@@ -6770,19 +6770,19 @@
         <v>405720</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>384450</v>
+        <v>385192</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>424350</v>
+        <v>423599</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8049738159170501</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7627726958118489</v>
+        <v>0.7642465305868215</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8419372854663033</v>
+        <v>0.8404475744588094</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>155952</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>134560</v>
+        <v>136064</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>180330</v>
+        <v>179774</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1831208474244457</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1580025727371087</v>
+        <v>0.1597679792348446</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2117459338961136</v>
+        <v>0.2110929027092891</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>204</v>
@@ -6895,19 +6895,19 @@
         <v>220884</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>194464</v>
+        <v>194773</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>249524</v>
+        <v>250721</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1897104246343916</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1670190070277227</v>
+        <v>0.167284574016407</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2143085238090158</v>
+        <v>0.2153364614036035</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>350</v>
@@ -6916,19 +6916,19 @@
         <v>376835</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>340554</v>
+        <v>341487</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>411565</v>
+        <v>414414</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1869266763693868</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1689293101385861</v>
+        <v>0.1693921873062321</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2041539121687123</v>
+        <v>0.2055670889741136</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>695682</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>671304</v>
+        <v>671860</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>717074</v>
+        <v>715570</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8168791525755543</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7882540661038867</v>
+        <v>0.7889070972907108</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8419974272628913</v>
+        <v>0.8402320207651554</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>873</v>
@@ -6966,19 +6966,19 @@
         <v>943436</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>914796</v>
+        <v>913599</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>969856</v>
+        <v>969547</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8102895753656084</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7856914761909839</v>
+        <v>0.7846635385963966</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8329809929722773</v>
+        <v>0.832715425983593</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1539</v>
@@ -6987,19 +6987,19 @@
         <v>1639118</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1604388</v>
+        <v>1601539</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1675399</v>
+        <v>1674466</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8130733236306131</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7958460878312876</v>
+        <v>0.7944329110258864</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8310706898614139</v>
+        <v>0.8306078126937679</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>12561</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7471</v>
+        <v>7425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19397</v>
+        <v>18212</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1926754901011219</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1146043271462918</v>
+        <v>0.1138934030808272</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2975253090288514</v>
+        <v>0.2793483140032592</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -7356,19 +7356,19 @@
         <v>20687</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15149</v>
+        <v>15317</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26848</v>
+        <v>27643</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.254207210919064</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1861499639386827</v>
+        <v>0.1882198301589839</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3299134390498052</v>
+        <v>0.3396743113026406</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -7377,19 +7377,19 @@
         <v>33248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25547</v>
+        <v>25732</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42642</v>
+        <v>42301</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.226839063996508</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1742952392660359</v>
+        <v>0.1755596544840143</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2909290178061648</v>
+        <v>0.2886037725341707</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>52632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45796</v>
+        <v>46981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>57722</v>
+        <v>57768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8073245098988781</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7024746909711485</v>
+        <v>0.7206516859967408</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8853956728537083</v>
+        <v>0.8861065969191732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>96</v>
@@ -7427,19 +7427,19 @@
         <v>60693</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54532</v>
+        <v>53737</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66231</v>
+        <v>66063</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7457927890809362</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6700865609501948</v>
+        <v>0.6603256886973595</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8138500360613178</v>
+        <v>0.8117801698410164</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -7448,19 +7448,19 @@
         <v>113324</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>103930</v>
+        <v>104271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>121025</v>
+        <v>120840</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.773160936003492</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7090709821938351</v>
+        <v>0.7113962274658292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8257047607339643</v>
+        <v>0.8244403455159856</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>27603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19080</v>
+        <v>19064</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37203</v>
+        <v>38031</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.3251782553258844</v>
+        <v>0.3251782553258845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2247750103307376</v>
+        <v>0.2245786958983166</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4382596495738034</v>
+        <v>0.4480232514412787</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -7573,19 +7573,19 @@
         <v>19533</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12635</v>
+        <v>13326</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28495</v>
+        <v>27906</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.1927724948413526</v>
+        <v>0.1927724948413527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1246963506576497</v>
+        <v>0.1315146376782227</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2812220125347265</v>
+        <v>0.2754145269805663</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>48</v>
@@ -7594,19 +7594,19 @@
         <v>47136</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35756</v>
+        <v>34990</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58968</v>
+        <v>59107</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2531313641640933</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1920188997677887</v>
+        <v>0.187905258553475</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3166739010438308</v>
+        <v>0.3174203943417242</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>57284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47684</v>
+        <v>46856</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65807</v>
+        <v>65823</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6748217446741152</v>
+        <v>0.6748217446741155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5617403504261966</v>
+        <v>0.5519767485587215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7752249896692623</v>
+        <v>0.7754213041016838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>111</v>
@@ -7644,19 +7644,19 @@
         <v>81792</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72830</v>
+        <v>73419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88690</v>
+        <v>87999</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8072275051586472</v>
+        <v>0.8072275051586474</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7187779874652749</v>
+        <v>0.724585473019435</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8753036493423503</v>
+        <v>0.8684853623217774</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>157</v>
@@ -7665,19 +7665,19 @@
         <v>139076</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>127244</v>
+        <v>127105</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>150456</v>
+        <v>151222</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7468686358359067</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6833260989561695</v>
+        <v>0.6825796056582757</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8079811002322115</v>
+        <v>0.812094741446525</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>15422</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9684</v>
+        <v>9900</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22500</v>
+        <v>22074</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.240786484738406</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1511966467909117</v>
+        <v>0.1545668129108835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3512873635411614</v>
+        <v>0.3446408599770521</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -7790,19 +7790,19 @@
         <v>22355</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16048</v>
+        <v>15725</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29526</v>
+        <v>28876</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2856492513279872</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.205056614392436</v>
+        <v>0.2009313599288554</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3772819097049764</v>
+        <v>0.3689718026341198</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -7811,19 +7811,19 @@
         <v>37778</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28495</v>
+        <v>28584</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>48105</v>
+        <v>47418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2654578022774243</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.200229077089383</v>
+        <v>0.2008560356246325</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3380264438665703</v>
+        <v>0.3331993115251915</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>48628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41550</v>
+        <v>41976</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>54366</v>
+        <v>54150</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7592135152615941</v>
+        <v>0.759213515261594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6487126364588394</v>
+        <v>0.655359140022948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8488033532090887</v>
+        <v>0.8454331870891167</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>88</v>
@@ -7861,19 +7861,19 @@
         <v>55906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48735</v>
+        <v>49385</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>62213</v>
+        <v>62536</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7143507486720129</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6227180902950237</v>
+        <v>0.6310281973658802</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7949433856075639</v>
+        <v>0.7990686400711448</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>146</v>
@@ -7882,19 +7882,19 @@
         <v>104533</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>94206</v>
+        <v>94893</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>113816</v>
+        <v>113727</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7345421977225758</v>
+        <v>0.7345421977225756</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6619735561334298</v>
+        <v>0.6668006884748084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7997709229106171</v>
+        <v>0.7991439643753677</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>29566</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20060</v>
+        <v>20391</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40287</v>
+        <v>39861</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3518680094821733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2387355597393142</v>
+        <v>0.2426715903154148</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4794501302221598</v>
+        <v>0.4743841285369521</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -8007,19 +8007,19 @@
         <v>36550</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26784</v>
+        <v>27857</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47460</v>
+        <v>48404</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3225002070407691</v>
+        <v>0.322500207040769</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2363301028359772</v>
+        <v>0.2457980076983814</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4187730827297756</v>
+        <v>0.4270980130638801</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>74</v>
@@ -8028,19 +8028,19 @@
         <v>66116</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>51716</v>
+        <v>52600</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81795</v>
+        <v>81525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3350037521422063</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2620396384823676</v>
+        <v>0.2665187030312975</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4144455030449161</v>
+        <v>0.4130798820955772</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>54461</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43740</v>
+        <v>44166</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63967</v>
+        <v>63636</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6481319905178268</v>
+        <v>0.6481319905178269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5205498697778401</v>
+        <v>0.525615871463048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7612644402606857</v>
+        <v>0.7573284096845851</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -8078,19 +8078,19 @@
         <v>76782</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>65872</v>
+        <v>64928</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86548</v>
+        <v>85475</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.677499792959231</v>
+        <v>0.6774997929592309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5812269172702239</v>
+        <v>0.5729019869361199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7636698971640223</v>
+        <v>0.7542019923016186</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>167</v>
@@ -8099,19 +8099,19 @@
         <v>131243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>115564</v>
+        <v>115834</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>145643</v>
+        <v>144759</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6649962478577937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5855544969550845</v>
+        <v>0.5869201179044229</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7379603615176323</v>
+        <v>0.7334812969687025</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>2772</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>698</v>
+        <v>661</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6133</v>
+        <v>5774</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1422197290592384</v>
+        <v>0.1422197290592385</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03581402996356453</v>
+        <v>0.03393126513379616</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3146644846156546</v>
+        <v>0.2962608525233135</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -8224,19 +8224,19 @@
         <v>3798</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1631</v>
+        <v>1643</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7648</v>
+        <v>7789</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1285291854978172</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05518834752759096</v>
+        <v>0.05561154040986321</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2588550043094791</v>
+        <v>0.2636151383050781</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -8245,19 +8245,19 @@
         <v>6570</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3399</v>
+        <v>3551</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11317</v>
+        <v>11688</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1339705082690368</v>
+        <v>0.1339705082690367</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06932196759870835</v>
+        <v>0.07242244161651208</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2307892629459533</v>
+        <v>0.2383487090606805</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>16718</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13357</v>
+        <v>13716</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18792</v>
+        <v>18829</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8577802709407615</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6853355153843445</v>
+        <v>0.7037391474766864</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9641859700364355</v>
+        <v>0.966068734866204</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -8295,19 +8295,19 @@
         <v>25749</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21899</v>
+        <v>21758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27916</v>
+        <v>27904</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8714708145021827</v>
+        <v>0.8714708145021828</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7411449956905206</v>
+        <v>0.7363848616949218</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9448116524724089</v>
+        <v>0.9443884595901368</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>81</v>
@@ -8316,19 +8316,19 @@
         <v>42467</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>37720</v>
+        <v>37349</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45638</v>
+        <v>45486</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8660294917309633</v>
+        <v>0.8660294917309632</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7692107370540465</v>
+        <v>0.7616512909393196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9306780324012915</v>
+        <v>0.927577558383488</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>12449</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7801</v>
+        <v>7813</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18376</v>
+        <v>18253</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2433995567952344</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1525292780699317</v>
+        <v>0.1527470452686007</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3592718493590769</v>
+        <v>0.3568731187263169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -8441,19 +8441,19 @@
         <v>15497</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10837</v>
+        <v>10180</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21663</v>
+        <v>21229</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2596948103440136</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1815949892242598</v>
+        <v>0.170582949256333</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.36302115912972</v>
+        <v>0.3557438249672889</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -8462,19 +8462,19 @@
         <v>27946</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20654</v>
+        <v>21070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35519</v>
+        <v>35485</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2521741525157362</v>
+        <v>0.2521741525157361</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1863708519026465</v>
+        <v>0.1901247495762941</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3205031753572304</v>
+        <v>0.3201947491057822</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>38698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>32771</v>
+        <v>32894</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>43346</v>
+        <v>43334</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7566004432047657</v>
+        <v>0.7566004432047658</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6407281506409231</v>
+        <v>0.6431268812736826</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8474707219300682</v>
+        <v>0.8472529547313991</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>85</v>
@@ -8512,19 +8512,19 @@
         <v>44178</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38012</v>
+        <v>38446</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>48838</v>
+        <v>49495</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7403051896559864</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6369788408702799</v>
+        <v>0.644256175032711</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8184050107757402</v>
+        <v>0.8294170507436668</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>144</v>
@@ -8533,19 +8533,19 @@
         <v>82876</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>75303</v>
+        <v>75337</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>90168</v>
+        <v>89752</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.747825847484264</v>
+        <v>0.7478258474842638</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6794968246427697</v>
+        <v>0.6798052508942178</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8136291480973541</v>
+        <v>0.8098752504237057</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>44302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32573</v>
+        <v>32085</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58865</v>
+        <v>59025</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2764660440555099</v>
+        <v>0.27646604405551</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2032735444795295</v>
+        <v>0.2002267315710368</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3673488506318235</v>
+        <v>0.3683469861433044</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>88</v>
@@ -8658,19 +8658,19 @@
         <v>72132</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60362</v>
+        <v>58822</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86943</v>
+        <v>86428</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2981972927487436</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2495392491381062</v>
+        <v>0.2431723379479374</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3594279371256711</v>
+        <v>0.3572983769696789</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -8679,19 +8679,19 @@
         <v>116434</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>97816</v>
+        <v>98173</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>135039</v>
+        <v>134945</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2895378113929912</v>
+        <v>0.2895378113929911</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2432403785204881</v>
+        <v>0.2441267619346058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3358018972663157</v>
+        <v>0.3355686065666778</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>115942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101379</v>
+        <v>101219</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>127671</v>
+        <v>128159</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7235339559444902</v>
+        <v>0.7235339559444901</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6326511493681765</v>
+        <v>0.6316530138566954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7967264555204705</v>
+        <v>0.799773268428963</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>225</v>
@@ -8729,19 +8729,19 @@
         <v>169762</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>154951</v>
+        <v>155466</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181532</v>
+        <v>183072</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7018027072512563</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6405720628743289</v>
+        <v>0.6427016230303211</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7504607508618938</v>
+        <v>0.7568276620520626</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>326</v>
@@ -8750,19 +8750,19 @@
         <v>285704</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>267099</v>
+        <v>267193</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>304322</v>
+        <v>303965</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.7104621886070089</v>
+        <v>0.7104621886070088</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6641981027336842</v>
+        <v>0.6644313934333224</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.756759621479512</v>
+        <v>0.7558732380653942</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>22634</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14870</v>
+        <v>15186</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>33247</v>
+        <v>33491</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1424160491707612</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09356166687475687</v>
+        <v>0.09555395347926578</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2091903272133054</v>
+        <v>0.2107278331897172</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -8875,19 +8875,19 @@
         <v>29242</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21386</v>
+        <v>20819</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39082</v>
+        <v>39019</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1326633927594974</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0970227681739084</v>
+        <v>0.09445278015066863</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1773063123749473</v>
+        <v>0.1770215212158152</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -8896,19 +8896,19 @@
         <v>51876</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>40493</v>
+        <v>40366</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>66315</v>
+        <v>65656</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1367493325473184</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1067432484929061</v>
+        <v>0.1064071538061303</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1748118611102898</v>
+        <v>0.1730754873133544</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>136297</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>125684</v>
+        <v>125440</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>144061</v>
+        <v>143745</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8575839508292387</v>
+        <v>0.8575839508292388</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7908096727866949</v>
+        <v>0.7892721668102827</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9064383331252434</v>
+        <v>0.9044460465207341</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>264</v>
@@ -8946,19 +8946,19 @@
         <v>191177</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>181337</v>
+        <v>181400</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>199033</v>
+        <v>199600</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8673366072405025</v>
+        <v>0.8673366072405027</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8226936876250526</v>
+        <v>0.8229784787841847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9029772318260916</v>
+        <v>0.9055472198493314</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>412</v>
@@ -8967,19 +8967,19 @@
         <v>327474</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>313035</v>
+        <v>313694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338857</v>
+        <v>338984</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8632506674526814</v>
+        <v>0.8632506674526816</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8251881388897102</v>
+        <v>0.8269245126866456</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8932567515070938</v>
+        <v>0.8935928461938695</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>167311</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>145097</v>
+        <v>145143</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>191093</v>
+        <v>192780</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2431951222482862</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.210906192091783</v>
+        <v>0.2109730197393642</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2777640469241986</v>
+        <v>0.2802157434847198</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>302</v>
@@ -9092,19 +9092,19 @@
         <v>219793</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>196895</v>
+        <v>199512</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>242527</v>
+        <v>242296</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2374007241130298</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2126676159175613</v>
+        <v>0.2154949997950336</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2619549219003032</v>
+        <v>0.2617060293260219</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>475</v>
@@ -9113,19 +9113,19 @@
         <v>387104</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>357186</v>
+        <v>357610</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>419943</v>
+        <v>418489</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2398708960855924</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2213319368240826</v>
+        <v>0.2215944788345659</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2602195410958003</v>
+        <v>0.259318435965561</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>520658</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>496876</v>
+        <v>495189</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>542872</v>
+        <v>542826</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7568048777517139</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7222359530758016</v>
+        <v>0.7197842565152799</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7890938079082169</v>
+        <v>0.7890269802606358</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1048</v>
@@ -9163,19 +9163,19 @@
         <v>706040</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>683306</v>
+        <v>683537</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>728938</v>
+        <v>726321</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7625992758869702</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7380450780996968</v>
+        <v>0.738293970673978</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7873323840824389</v>
+        <v>0.7845050002049664</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1585</v>
@@ -9184,19 +9184,19 @@
         <v>1226698</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1193859</v>
+        <v>1195313</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1256616</v>
+        <v>1256192</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.7601291039144075</v>
+        <v>0.7601291039144076</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7397804589041997</v>
+        <v>0.7406815640344392</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7786680631759174</v>
+        <v>0.7784055211654339</v>
       </c>
     </row>
     <row r="30">
